--- a/Testing_Errors.xlsx
+++ b/Testing_Errors.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>bp17</t>
-  </si>
-  <si>
     <t>Revision</t>
   </si>
   <si>
@@ -48,17 +45,53 @@
     <t>FEBio2</t>
   </si>
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>DaveWin7</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Std/Current</t>
+  </si>
+  <si>
+    <t>Termination</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>sh15</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>&lt;4672</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>This was a problem when we started running the test FEBio2 test suite on Linux on 7/25/13.  Assertion false in FEElasticShellDomain.h:57</t>
+  </si>
+  <si>
+    <t>Machine/Platform</t>
+  </si>
+  <si>
+    <t>swell/lnx64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +99,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,102 +439,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="83.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>41556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>41556</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4629</v>
-      </c>
-      <c r="E2">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>238</v>
-      </c>
-      <c r="G2">
-        <v>361</v>
-      </c>
-      <c r="H2">
-        <v>238</v>
-      </c>
-      <c r="I2">
-        <v>5.4803999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4631</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>212</v>
-      </c>
-      <c r="G3">
-        <v>298</v>
-      </c>
-      <c r="H3">
-        <v>212</v>
-      </c>
       <c r="I3">
-        <v>6.18294E-2</v>
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>-0.37391200000000002</v>
       </c>
     </row>
   </sheetData>
